--- a/output/QUALITY/rebalance/rebalance_20240628.xlsx
+++ b/output/QUALITY/rebalance/rebalance_20240628.xlsx
@@ -6228,13 +6228,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02262147369769233</v>
+        <v>0.02262061385640451</v>
       </c>
       <c r="C2" t="n">
         <v>0.02483960150514148</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002218127807449146</v>
+        <v>0.002218987648736969</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6249,13 +6249,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02313174588541344</v>
+        <v>0.02313151150331524</v>
       </c>
       <c r="C3" t="n">
         <v>0.02413127243254072</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0009995265471272816</v>
+        <v>0.0009997609292254836</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6270,13 +6270,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02065416506744433</v>
+        <v>0.02065162040082372</v>
       </c>
       <c r="C4" t="n">
         <v>0.02360673602877899</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002952570961334663</v>
+        <v>0.002955115627955269</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02011935744598317</v>
+        <v>0.02011930708762903</v>
       </c>
       <c r="C5" t="n">
         <v>0.02329303565780863</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003173678211825452</v>
+        <v>0.003173728570179602</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6333,13 +6333,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02295391734252688</v>
+        <v>0.02295675340022725</v>
       </c>
       <c r="C7" t="n">
         <v>0.02279722445221118</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0001566928903156996</v>
+        <v>-0.0001595289480160675</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6354,13 +6354,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02297816355709003</v>
+        <v>0.02297372031356625</v>
       </c>
       <c r="C8" t="n">
         <v>0.02227185007676241</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.000706313480327625</v>
+        <v>-0.0007018702368038442</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6375,13 +6375,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03139329958284467</v>
+        <v>0.03139298202595708</v>
       </c>
       <c r="C9" t="n">
         <v>0.02210165640714662</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.009291643175698052</v>
+        <v>-0.009291325618810461</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02109495561753611</v>
+        <v>0.02109570822420258</v>
       </c>
       <c r="C10" t="n">
         <v>0.02142271377926108</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0003277581617249607</v>
+        <v>0.0003270055550584905</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02030123319962106</v>
+        <v>0.0202992363576691</v>
       </c>
       <c r="C11" t="n">
         <v>0.02107223543475794</v>
       </c>
       <c r="D11" t="n">
-        <v>0.000771002235136875</v>
+        <v>0.0007729990770888422</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6438,13 +6438,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01905005835214239</v>
+        <v>0.01904657638376666</v>
       </c>
       <c r="C12" t="n">
         <v>0.02107028704013239</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002020228687990004</v>
+        <v>0.002023710656365738</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6459,13 +6459,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0287187782608021</v>
+        <v>0.02871498082279196</v>
       </c>
       <c r="C13" t="n">
         <v>0.02093531469014219</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.007783463570659909</v>
+        <v>-0.007779666132649771</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6480,13 +6480,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01765266916827837</v>
+        <v>0.01765226372515599</v>
       </c>
       <c r="C14" t="n">
         <v>0.02093082734439461</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003278158176116243</v>
+        <v>0.003278563619238617</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6501,13 +6501,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01813332497630244</v>
+        <v>0.01813136108976819</v>
       </c>
       <c r="C15" t="n">
         <v>0.02087039912952268</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002737074153220234</v>
+        <v>0.002739038039754487</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02724282214049834</v>
+        <v>0.02724604430350599</v>
       </c>
       <c r="C16" t="n">
         <v>0.02072845939104156</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.006514362749456777</v>
+        <v>-0.006517584912464427</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6543,13 +6543,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0175539585741125</v>
+        <v>0.01755808065558809</v>
       </c>
       <c r="C17" t="n">
         <v>0.020646307238814</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003092348664701507</v>
+        <v>0.003088226583225911</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6564,13 +6564,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0219155055922385</v>
+        <v>0.02191252302937852</v>
       </c>
       <c r="C18" t="n">
         <v>0.02051632295579035</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.001399182636448146</v>
+        <v>-0.001396200073588167</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6585,13 +6585,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02319646027282673</v>
+        <v>0.0231955333722326</v>
       </c>
       <c r="C19" t="n">
         <v>0.02046491655911654</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.002731543713710184</v>
+        <v>-0.002730616813116062</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6606,13 +6606,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02108651911689547</v>
+        <v>0.02108557171636909</v>
       </c>
       <c r="C20" t="n">
         <v>0.0204454841576924</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0006410349592030629</v>
+        <v>-0.0006400875586766892</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6627,13 +6627,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01862472931550013</v>
+        <v>0.01862635359531003</v>
       </c>
       <c r="C21" t="n">
         <v>0.02027524483408312</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001650515518582991</v>
+        <v>0.001648891238773091</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6648,13 +6648,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01539310267293344</v>
+        <v>0.01539761562754497</v>
       </c>
       <c r="C22" t="n">
         <v>0.02025206733248304</v>
       </c>
       <c r="D22" t="n">
-        <v>0.004858964659549598</v>
+        <v>0.004854451704938069</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6669,13 +6669,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02441408053387882</v>
+        <v>0.02441211253924517</v>
       </c>
       <c r="C23" t="n">
         <v>0.02014063918875034</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.004273441345128481</v>
+        <v>-0.004271473350494829</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6690,13 +6690,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02925234955702867</v>
+        <v>0.02924554852394148</v>
       </c>
       <c r="C24" t="n">
         <v>0.01985861385300774</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.009393735704020925</v>
+        <v>-0.009386934670933735</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6711,13 +6711,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01736287769676163</v>
+        <v>0.01736325664507048</v>
       </c>
       <c r="C25" t="n">
         <v>0.01972353104980747</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002360653353045847</v>
+        <v>0.002360274404736996</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02048361926918062</v>
+        <v>0.02048551855606689</v>
       </c>
       <c r="C26" t="n">
         <v>0.01965741523097191</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0008262040382087076</v>
+        <v>-0.0008281033250949754</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01774788716107216</v>
+        <v>0.01774873307279022</v>
       </c>
       <c r="C27" t="n">
         <v>0.0194141044817119</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001666217320639745</v>
+        <v>0.001665371408921684</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6774,13 +6774,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01818425315585652</v>
+        <v>0.01818386769910952</v>
       </c>
       <c r="C28" t="n">
         <v>0.0193794192283325</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001195166072475974</v>
+        <v>0.001195551529222981</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6795,13 +6795,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01902642318036834</v>
+        <v>0.01902552458271827</v>
       </c>
       <c r="C29" t="n">
         <v>0.01935636543432769</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0003299422539593463</v>
+        <v>0.0003308408516094104</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6816,13 +6816,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02470378830152877</v>
+        <v>0.02470073255449147</v>
       </c>
       <c r="C30" t="n">
         <v>0.01927131940799642</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.005432468893532348</v>
+        <v>-0.005429413146495046</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6858,13 +6858,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02054674190840705</v>
+        <v>0.02054736238100265</v>
       </c>
       <c r="C32" t="n">
         <v>0.01923421596567133</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.001312525942735721</v>
+        <v>-0.001313146415331319</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6879,13 +6879,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02258142496819094</v>
+        <v>0.02258195269189523</v>
       </c>
       <c r="C33" t="n">
         <v>0.01888929562669867</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.003692129341492274</v>
+        <v>-0.003692657065196565</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6921,13 +6921,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02049928790782064</v>
+        <v>0.02049718731698438</v>
       </c>
       <c r="C35" t="n">
         <v>0.01883014425093509</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.001669143656885551</v>
+        <v>-0.001667043066049291</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01787291295367517</v>
+        <v>0.01787304791438267</v>
       </c>
       <c r="C36" t="n">
         <v>0.01875536006417362</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0008824471104984487</v>
+        <v>0.0008823121497909432</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6963,13 +6963,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01613749866960128</v>
+        <v>0.01613522918996336</v>
       </c>
       <c r="C37" t="n">
         <v>0.01874009248512367</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002602593815522383</v>
+        <v>0.002604863295160312</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7005,13 +7005,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01854596506763564</v>
+        <v>0.01854714994668803</v>
       </c>
       <c r="C39" t="n">
         <v>0.01862115646852547</v>
       </c>
       <c r="D39" t="n">
-        <v>7.519140088982357e-05</v>
+        <v>7.400652183743583e-05</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7026,13 +7026,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01666023909236491</v>
+        <v>0.01666043477715783</v>
       </c>
       <c r="C40" t="n">
         <v>0.01848035218904382</v>
       </c>
       <c r="D40" t="n">
-        <v>0.001820113096678913</v>
+        <v>0.001819917411885995</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7047,13 +7047,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01549904894832074</v>
+        <v>0.01550146732576727</v>
       </c>
       <c r="C41" t="n">
         <v>0.01846203904681502</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002962990098494279</v>
+        <v>0.002960571721047753</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7068,13 +7068,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02427354711253352</v>
+        <v>0.02427125066234648</v>
       </c>
       <c r="C42" t="n">
         <v>0.01841104942692052</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.005862497685613009</v>
+        <v>-0.005860201235425966</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7110,13 +7110,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01868815008956237</v>
+        <v>0.01870108814258589</v>
       </c>
       <c r="C44" t="n">
         <v>0.01829314283424013</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.0003950072553222418</v>
+        <v>-0.0004079453083457585</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7173,13 +7173,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0181133294377855</v>
+        <v>0.01811342004541083</v>
       </c>
       <c r="C47" t="n">
         <v>0.01802174015188687</v>
       </c>
       <c r="D47" t="n">
-        <v>-9.158928589863072e-05</v>
+        <v>-9.167989352396044e-05</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7236,13 +7236,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01694327476723472</v>
+        <v>0.0169437273901962</v>
       </c>
       <c r="C50" t="n">
         <v>0.01786708945799145</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0009238146907567316</v>
+        <v>0.0009233620677952525</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01664380584529343</v>
+        <v>0.01664347638129653</v>
       </c>
       <c r="C51" t="n">
         <v>0.01762362996507522</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0009798241197817893</v>
+        <v>0.0009801535837786826</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7278,13 +7278,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01775488725652044</v>
+        <v>0.01775546253569189</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01775488725652044</v>
+        <v>-0.01775546253569189</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01489310964702655</v>
+        <v>0.0148951658985696</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01489310964702655</v>
+        <v>-0.0148951658985696</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7320,13 +7320,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01734162971017354</v>
+        <v>0.01734455033334547</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01734162971017354</v>
+        <v>-0.01734455033334547</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7341,13 +7341,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0175437486157845</v>
+        <v>0.01754484778847254</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.0175437486157845</v>
+        <v>-0.01754484778847254</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7362,13 +7362,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01966135443358521</v>
+        <v>0.01965939549581261</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01966135443358521</v>
+        <v>-0.01965939549581261</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7383,13 +7383,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01609436711616349</v>
+        <v>0.01609486034392766</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01609436711616349</v>
+        <v>-0.01609486034392766</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7404,13 +7404,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01416579766364772</v>
+        <v>0.01416703037212416</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01416579766364772</v>
+        <v>-0.01416703037212416</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7425,13 +7425,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01459226728643258</v>
+        <v>0.01459161218796108</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01459226728643258</v>
+        <v>-0.01459161218796108</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7446,13 +7446,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01995609280788194</v>
+        <v>0.01995662921377721</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01995609280788194</v>
+        <v>-0.01995662921377721</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>

--- a/output/QUALITY/rebalance/rebalance_20240628.xlsx
+++ b/output/QUALITY/rebalance/rebalance_20240628.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21.42%</t>
+          <t>21.55%</t>
         </is>
       </c>
     </row>
@@ -6228,13 +6228,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02262061385640451</v>
+        <v>0.02278508468115041</v>
       </c>
       <c r="C2" t="n">
         <v>0.02483960150514148</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002218987648736969</v>
+        <v>0.002054516823991069</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6249,13 +6249,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02313151150331524</v>
+        <v>0.02329904743897232</v>
       </c>
       <c r="C3" t="n">
         <v>0.02413127243254072</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0009997609292254836</v>
+        <v>0.0008322249935684041</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6270,13 +6270,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02065162040082372</v>
+        <v>0.02080354738905389</v>
       </c>
       <c r="C4" t="n">
         <v>0.02360673602877899</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002955115627955269</v>
+        <v>0.002803188639725101</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02011930708762903</v>
+        <v>0.02026487174369309</v>
       </c>
       <c r="C5" t="n">
         <v>0.02329303565780863</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003173728570179602</v>
+        <v>0.003028163914115537</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6333,13 +6333,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02295675340022725</v>
+        <v>0.02311993274191307</v>
       </c>
       <c r="C7" t="n">
         <v>0.02279722445221118</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0001595289480160675</v>
+        <v>-0.0003227082897018889</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6354,13 +6354,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02297372031356625</v>
+        <v>0.02314435431848239</v>
       </c>
       <c r="C8" t="n">
         <v>0.02227185007676241</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0007018702368038442</v>
+        <v>-0.000872504241719977</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6375,13 +6375,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03139298202595708</v>
+        <v>0.03149259424957723</v>
       </c>
       <c r="C9" t="n">
         <v>0.02210165640714662</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.009291325618810461</v>
+        <v>-0.00939093784243061</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02109570822420258</v>
+        <v>0.02080301706798442</v>
       </c>
       <c r="C10" t="n">
         <v>0.02142271377926108</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0003270055550584905</v>
+        <v>0.0006196967112766551</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0202992363576691</v>
+        <v>0.02007688636767727</v>
       </c>
       <c r="C11" t="n">
         <v>0.02107223543475794</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0007729990770888422</v>
+        <v>0.0009953490670806739</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6438,13 +6438,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01904657638376666</v>
+        <v>0.01918783888861761</v>
       </c>
       <c r="C12" t="n">
         <v>0.02107028704013239</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002023710656365738</v>
+        <v>0.001882448151514785</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6459,13 +6459,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02871498082279196</v>
+        <v>0.02859110874152097</v>
       </c>
       <c r="C13" t="n">
         <v>0.02093531469014219</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.007779666132649771</v>
+        <v>-0.007655794051378777</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6480,13 +6480,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01765226372515599</v>
+        <v>0.01778034301490213</v>
       </c>
       <c r="C14" t="n">
         <v>0.02093082734439461</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003278563619238617</v>
+        <v>0.003150484329492484</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6501,13 +6501,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01813136108976819</v>
+        <v>0.01826447519102258</v>
       </c>
       <c r="C15" t="n">
         <v>0.02087039912952268</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002739038039754487</v>
+        <v>0.002605923938500093</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02724604430350599</v>
+        <v>0.02743985726659785</v>
       </c>
       <c r="C16" t="n">
         <v>0.02072845939104156</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.006517584912464427</v>
+        <v>-0.006711397875556281</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6543,13 +6543,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01755808065558809</v>
+        <v>0.01745542271917484</v>
       </c>
       <c r="C17" t="n">
         <v>0.020646307238814</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003088226583225911</v>
+        <v>0.003190884519639167</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6564,13 +6564,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02191252302937852</v>
+        <v>0.02207401062470654</v>
       </c>
       <c r="C18" t="n">
         <v>0.02051632295579035</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.001396200073588167</v>
+        <v>-0.001557687668916195</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6585,13 +6585,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0231955333722326</v>
+        <v>0.02327525284626354</v>
       </c>
       <c r="C19" t="n">
         <v>0.02046491655911654</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.002730616813116062</v>
+        <v>-0.002810336287146997</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6606,13 +6606,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02108557171636909</v>
+        <v>0.02123902846162377</v>
       </c>
       <c r="C20" t="n">
         <v>0.0204454841576924</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0006400875586766892</v>
+        <v>-0.0007935443039313698</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6627,13 +6627,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01862635359531003</v>
+        <v>0.01875943363762662</v>
       </c>
       <c r="C21" t="n">
         <v>0.02027524483408312</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001648891238773091</v>
+        <v>0.001515811196456499</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6648,13 +6648,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01539761562754497</v>
+        <v>0.01497662356539138</v>
       </c>
       <c r="C22" t="n">
         <v>0.02025206733248304</v>
       </c>
       <c r="D22" t="n">
-        <v>0.004854451704938069</v>
+        <v>0.005275443767091664</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6669,13 +6669,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02441211253924517</v>
+        <v>0.02459065663938605</v>
       </c>
       <c r="C23" t="n">
         <v>0.02014063918875034</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.004271473350494829</v>
+        <v>-0.004450017450635713</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6690,13 +6690,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02924554852394148</v>
+        <v>0.02946391869454133</v>
       </c>
       <c r="C24" t="n">
         <v>0.01985861385300774</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.009386934670933735</v>
+        <v>-0.009605304841533588</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6711,13 +6711,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01736325664507048</v>
+        <v>0.01748845561151612</v>
       </c>
       <c r="C25" t="n">
         <v>0.01972353104980747</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002360274404736996</v>
+        <v>0.002235075438291354</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02048551855606689</v>
+        <v>0.02063176810944622</v>
       </c>
       <c r="C26" t="n">
         <v>0.01965741523097191</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0008281033250949754</v>
+        <v>-0.000974352878474305</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01774873307279022</v>
+        <v>0.01787624967677435</v>
       </c>
       <c r="C27" t="n">
         <v>0.0194141044817119</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001665371408921684</v>
+        <v>0.001537854804937552</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6774,13 +6774,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01818386769910952</v>
+        <v>0.01807642631601655</v>
       </c>
       <c r="C28" t="n">
         <v>0.0193794192283325</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001195551529222981</v>
+        <v>0.001302992912315951</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6795,13 +6795,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01902552458271827</v>
+        <v>0.01868315091094211</v>
       </c>
       <c r="C29" t="n">
         <v>0.01935636543432769</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0003308408516094104</v>
+        <v>0.0006732145233855798</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6816,13 +6816,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02470073255449147</v>
+        <v>0.02488245973351272</v>
       </c>
       <c r="C30" t="n">
         <v>0.01927131940799642</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.005429413146495046</v>
+        <v>-0.005611140325516295</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6858,13 +6858,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02054736238100265</v>
+        <v>0.0206953472864394</v>
       </c>
       <c r="C32" t="n">
         <v>0.01923421596567133</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.001313146415331319</v>
+        <v>-0.001461131320768069</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6879,13 +6879,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02258195269189523</v>
+        <v>0.02222531024948507</v>
       </c>
       <c r="C33" t="n">
         <v>0.01888929562669867</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.003692657065196565</v>
+        <v>-0.003336014622786401</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6921,13 +6921,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02049718731698438</v>
+        <v>0.02064755007232904</v>
       </c>
       <c r="C35" t="n">
         <v>0.01883014425093509</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.001667043066049291</v>
+        <v>-0.001817405821393954</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01787304791438267</v>
+        <v>0.01800217972491608</v>
       </c>
       <c r="C36" t="n">
         <v>0.01875536006417362</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0008823121497909432</v>
+        <v>0.0007531803392575413</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6963,13 +6963,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01613522918996336</v>
+        <v>0.01625421396689674</v>
       </c>
       <c r="C37" t="n">
         <v>0.01874009248512367</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002604863295160312</v>
+        <v>0.002485878518226927</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7005,13 +7005,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01854714994668803</v>
+        <v>0.01793847188348969</v>
       </c>
       <c r="C39" t="n">
         <v>0.01862115646852547</v>
       </c>
       <c r="D39" t="n">
-        <v>7.400652183743583e-05</v>
+        <v>0.0006826845850357761</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7026,13 +7026,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01666043477715783</v>
+        <v>0.01611249666136177</v>
       </c>
       <c r="C40" t="n">
         <v>0.01848035218904382</v>
       </c>
       <c r="D40" t="n">
-        <v>0.001819917411885995</v>
+        <v>0.002367855527682056</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7047,13 +7047,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01550146732576727</v>
+        <v>0.01490154905098984</v>
       </c>
       <c r="C41" t="n">
         <v>0.01846203904681502</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002960571721047753</v>
+        <v>0.003560489995825179</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7068,13 +7068,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02427125066234648</v>
+        <v>0.02444910680277174</v>
       </c>
       <c r="C42" t="n">
         <v>0.01841104942692052</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.005860201235425966</v>
+        <v>-0.006038057375851228</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7110,13 +7110,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01870108814258589</v>
+        <v>0.01868450378042053</v>
       </c>
       <c r="C44" t="n">
         <v>0.01829314283424013</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.0004079453083457585</v>
+        <v>-0.0003913609461804017</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7173,13 +7173,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.01811342004541083</v>
+        <v>0.01824433503373478</v>
       </c>
       <c r="C47" t="n">
         <v>0.01802174015188687</v>
       </c>
       <c r="D47" t="n">
-        <v>-9.167989352396044e-05</v>
+        <v>-0.0002225948818479102</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -7236,13 +7236,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0169437273901962</v>
+        <v>0.0170658178820076</v>
       </c>
       <c r="C50" t="n">
         <v>0.01786708945799145</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0009233620677952525</v>
+        <v>0.0008012715759838467</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01664347638129653</v>
+        <v>0.0167641830355342</v>
       </c>
       <c r="C51" t="n">
         <v>0.01762362996507522</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0009801535837786826</v>
+        <v>0.0008594469295410134</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7278,13 +7278,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01775546253569189</v>
+        <v>0.01788330040077654</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01775546253569189</v>
+        <v>-0.01788330040077654</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0148951658985696</v>
+        <v>0.01420063858949322</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0148951658985696</v>
+        <v>-0.01420063858949322</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7320,13 +7320,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01734455033334547</v>
+        <v>0.0166537321453158</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01734455033334547</v>
+        <v>-0.0166537321453158</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7341,13 +7341,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01754484778847254</v>
+        <v>0.01767063468885513</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01754484778847254</v>
+        <v>-0.01767063468885513</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7362,13 +7362,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01965939549581261</v>
+        <v>0.01980355620071966</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01965939549581261</v>
+        <v>-0.01980355620071966</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7383,13 +7383,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01609486034392766</v>
+        <v>0.01621077046225848</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01609486034392766</v>
+        <v>-0.01621077046225848</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7404,13 +7404,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01416703037212416</v>
+        <v>0.01426825253100917</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01416703037212416</v>
+        <v>-0.01426825253100917</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7425,13 +7425,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01459161218796108</v>
+        <v>0.0146978066174913</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01459161218796108</v>
+        <v>-0.0146978066174913</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7446,13 +7446,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01995662921377721</v>
+        <v>0.02010042628561693</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01995662921377721</v>
+        <v>-0.02010042628561693</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
